--- a/po_analysis_by_asin/B0CW27V4HC_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW27V4HC_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>210</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>16</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>40</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>8</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>16</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>34</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>150</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>116</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>6</v>
@@ -555,7 +555,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>210</v>
@@ -563,7 +563,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>56</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>58</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>272</v>

--- a/po_analysis_by_asin/B0CW27V4HC_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW27V4HC_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -549,7 +550,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -583,6 +584,285 @@
       </c>
       <c r="B5" t="n">
         <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>164</v>
+      </c>
+      <c r="C2" t="n">
+        <v>91.75144322501968</v>
+      </c>
+      <c r="D2" t="n">
+        <v>239.6544331433851</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>79</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.524696941170401</v>
+      </c>
+      <c r="D3" t="n">
+        <v>150.9247566639964</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4.471494925372093</v>
+      </c>
+      <c r="D4" t="n">
+        <v>149.4743864481538</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-14.95170257079919</v>
+      </c>
+      <c r="D5" t="n">
+        <v>129.3075715836407</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>56</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-15.79857507181275</v>
+      </c>
+      <c r="D6" t="n">
+        <v>134.3354323222415</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>52</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-21.10892035912324</v>
+      </c>
+      <c r="D7" t="n">
+        <v>124.8131510328605</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-28.92715749907393</v>
+      </c>
+      <c r="D8" t="n">
+        <v>111.9191961980789</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>37</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-41.65038961145344</v>
+      </c>
+      <c r="D9" t="n">
+        <v>112.3333817235889</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>33</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-40.20747820955162</v>
+      </c>
+      <c r="D10" t="n">
+        <v>104.652698906299</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>29</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-46.29481760448503</v>
+      </c>
+      <c r="D11" t="n">
+        <v>102.9127640483353</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-53.9566898968576</v>
+      </c>
+      <c r="D12" t="n">
+        <v>97.10047534385792</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-51.79803248173664</v>
+      </c>
+      <c r="D13" t="n">
+        <v>91.97434719461111</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-57.63753770163204</v>
+      </c>
+      <c r="D14" t="n">
+        <v>89.83909096000171</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-54.86249035832387</v>
+      </c>
+      <c r="D15" t="n">
+        <v>91.62845184935874</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-66.04362525048423</v>
+      </c>
+      <c r="D16" t="n">
+        <v>82.32742028115224</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-74.82676538993645</v>
+      </c>
+      <c r="D17" t="n">
+        <v>72.41174001224417</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-69.42586417779945</v>
+      </c>
+      <c r="D18" t="n">
+        <v>77.04647352913857</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CW27V4HC_po_data.xlsx
+++ b/po_analysis_by_asin/B0CW27V4HC_po_data.xlsx
@@ -597,7 +597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,16 +616,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -634,12 +624,6 @@
       <c r="B2" t="n">
         <v>164</v>
       </c>
-      <c r="C2" t="n">
-        <v>91.75144322501968</v>
-      </c>
-      <c r="D2" t="n">
-        <v>239.6544331433851</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -648,12 +632,6 @@
       <c r="B3" t="n">
         <v>79</v>
       </c>
-      <c r="C3" t="n">
-        <v>1.524696941170401</v>
-      </c>
-      <c r="D3" t="n">
-        <v>150.9247566639964</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -662,12 +640,6 @@
       <c r="B4" t="n">
         <v>75</v>
       </c>
-      <c r="C4" t="n">
-        <v>4.471494925372093</v>
-      </c>
-      <c r="D4" t="n">
-        <v>149.4743864481538</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -676,12 +648,6 @@
       <c r="B5" t="n">
         <v>60</v>
       </c>
-      <c r="C5" t="n">
-        <v>-14.95170257079919</v>
-      </c>
-      <c r="D5" t="n">
-        <v>129.3075715836407</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -690,12 +656,6 @@
       <c r="B6" t="n">
         <v>56</v>
       </c>
-      <c r="C6" t="n">
-        <v>-15.79857507181275</v>
-      </c>
-      <c r="D6" t="n">
-        <v>134.3354323222415</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -704,12 +664,6 @@
       <c r="B7" t="n">
         <v>52</v>
       </c>
-      <c r="C7" t="n">
-        <v>-21.10892035912324</v>
-      </c>
-      <c r="D7" t="n">
-        <v>124.8131510328605</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -718,12 +672,6 @@
       <c r="B8" t="n">
         <v>40</v>
       </c>
-      <c r="C8" t="n">
-        <v>-28.92715749907393</v>
-      </c>
-      <c r="D8" t="n">
-        <v>111.9191961980789</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -732,12 +680,6 @@
       <c r="B9" t="n">
         <v>37</v>
       </c>
-      <c r="C9" t="n">
-        <v>-41.65038961145344</v>
-      </c>
-      <c r="D9" t="n">
-        <v>112.3333817235889</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -746,12 +688,6 @@
       <c r="B10" t="n">
         <v>33</v>
       </c>
-      <c r="C10" t="n">
-        <v>-40.20747820955162</v>
-      </c>
-      <c r="D10" t="n">
-        <v>104.652698906299</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -760,12 +696,6 @@
       <c r="B11" t="n">
         <v>29</v>
       </c>
-      <c r="C11" t="n">
-        <v>-46.29481760448503</v>
-      </c>
-      <c r="D11" t="n">
-        <v>102.9127640483353</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -774,12 +704,6 @@
       <c r="B12" t="n">
         <v>25</v>
       </c>
-      <c r="C12" t="n">
-        <v>-53.9566898968576</v>
-      </c>
-      <c r="D12" t="n">
-        <v>97.10047534385792</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -788,12 +712,6 @@
       <c r="B13" t="n">
         <v>21</v>
       </c>
-      <c r="C13" t="n">
-        <v>-51.79803248173664</v>
-      </c>
-      <c r="D13" t="n">
-        <v>91.97434719461111</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -802,12 +720,6 @@
       <c r="B14" t="n">
         <v>17</v>
       </c>
-      <c r="C14" t="n">
-        <v>-57.63753770163204</v>
-      </c>
-      <c r="D14" t="n">
-        <v>89.83909096000171</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -816,12 +728,6 @@
       <c r="B15" t="n">
         <v>13</v>
       </c>
-      <c r="C15" t="n">
-        <v>-54.86249035832387</v>
-      </c>
-      <c r="D15" t="n">
-        <v>91.62845184935874</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -830,12 +736,6 @@
       <c r="B16" t="n">
         <v>9</v>
       </c>
-      <c r="C16" t="n">
-        <v>-66.04362525048423</v>
-      </c>
-      <c r="D16" t="n">
-        <v>82.32742028115224</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -844,12 +744,6 @@
       <c r="B17" t="n">
         <v>6</v>
       </c>
-      <c r="C17" t="n">
-        <v>-74.82676538993645</v>
-      </c>
-      <c r="D17" t="n">
-        <v>72.41174001224417</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -857,12 +751,6 @@
       </c>
       <c r="B18" t="n">
         <v>2</v>
-      </c>
-      <c r="C18" t="n">
-        <v>-69.42586417779945</v>
-      </c>
-      <c r="D18" t="n">
-        <v>77.04647352913857</v>
       </c>
     </row>
   </sheetData>
